--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
+  </si>
+  <si>
+    <t>TOTAL TARDINESS</t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -650,20 +653,29 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="0" t="str">
-        <f>SUM(F5:F19)</f>
+      <c r="B19" s="5" t="str">
+        <f>COUNT(F5:F19)</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="str">
+        <f>SUM(F5:F18)</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:F20"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -162,7 +162,40 @@
     <t>NUMBER OF TIMES TARDY</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>TOTAL TARDINESS</t>
+  </si>
+  <si>
+    <t>TOTAL OT HOURS</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVES ACCUMULATED</t>
+  </si>
+  <si>
+    <t>ACCUMULATED OT</t>
+  </si>
+  <si>
+    <t>LATES</t>
+  </si>
+  <si>
+    <t>ACCUMULATED VL</t>
+  </si>
+  <si>
+    <t>ACCUMULATED SL</t>
+  </si>
+  <si>
+    <t>VL BALANCE</t>
+  </si>
+  <si>
+    <t>-9.4.0</t>
+  </si>
+  <si>
+    <t>SL BALANCE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -279,7 +312,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -295,6 +328,11 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="24.434831460674157"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="17.834831460674156"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="16.184831460674157"/>
+    <col min="11" max="11" bestFit="false" customWidth="false" hidden="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.189887640449439" hidden="true"/>
+    <col min="13" max="13" bestFit="false" customWidth="false" hidden="true"/>
+    <col min="14" max="14" bestFit="false" customWidth="false" hidden="true"/>
+    <col min="15" max="15" bestFit="false" customWidth="false" hidden="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -355,9 +393,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
@@ -375,9 +411,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
@@ -395,9 +429,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
@@ -419,9 +451,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
@@ -443,9 +473,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
@@ -467,9 +495,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
@@ -491,9 +517,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
@@ -511,9 +535,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
@@ -531,9 +553,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
@@ -555,9 +575,7 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
@@ -579,9 +597,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
@@ -603,9 +619,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
@@ -623,9 +637,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
@@ -643,9 +655,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
@@ -656,26 +666,461 @@
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="5" t="str">
-        <f>COUNT(F5:F19)</f>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f>COUNT(F5:F18)</f>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="5" t="str">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5" t="str">
         <f>SUM(F5:F18)</f>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>SUM(G5:G18)</f>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>SUM(H5:H18)</f>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>SUM(I5:I18)</f>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>FLOOR(G21/8,1,1)&amp;"."&amp;FLOOR(MOD(G21,8),1,1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1,1))*60</f>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f>INT(LEFT(B25,1))</f>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f>RIGHT(B25,LEN(B25)-2)</f>
+      </c>
+      <c r="M24" s="5" t="str">
+        <f>INT(LEFT(L24,1))</f>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f>RIGHT(L24,LEN(L24)-2)+0</f>
+      </c>
+      <c r="O24" s="5" t="str">
+        <f>K24*8*60+M24*60+N24</f>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>FLOOR(F20/8,1,1)&amp;"."&amp;FLOOR(MOD(F20,8),1,1)&amp;"."&amp;(MOD(F20,8)-FLOOR(MOD(F20,8),1,1))*60</f>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>INT(LEFT(B26,1))</f>
+      </c>
+      <c r="L25" s="5" t="str">
+        <f>RIGHT(B26,LEN(B26)-2)</f>
+      </c>
+      <c r="M25" s="5" t="str">
+        <f>INT(LEFT(L25,1))</f>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>RIGHT(L25,LEN(L25)-2)+0</f>
+      </c>
+      <c r="O25" s="5" t="str">
+        <f>K25*8*60+M25*60+N25</f>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>FLOOR(H22,1,1)&amp;"."&amp;(H22-FLOOR(H22,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f>INT(LEFT(B27,1))</f>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f>RIGHT(B27,LEN(B27)-2)</f>
+      </c>
+      <c r="M26" s="5" t="str">
+        <f>INT(LEFT(L26,1))</f>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f>RIGHT(L26,LEN(L26)-2)+0</f>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f>K26*8*60+M26*60+N26</f>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>FLOOR(I22,1,1)&amp;"."&amp;(I22-FLOOR(I22,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f>INT(LEFT(B28,1))</f>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f>RIGHT(B28,LEN(B28)-2)</f>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f>INT(LEFT(L27,1))</f>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>RIGHT(L27,LEN(L27)-2)+0</f>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f>K27*8*60+M27*60+N27</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f>INT(LEFT(B29,1))</f>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f>RIGHT(B29,LEN(B29)-2)</f>
+      </c>
+      <c r="M28" s="5" t="str">
+        <f>INT(LEFT(L28,1))</f>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>RIGHT(L28,LEN(L28)-2)+0</f>
+      </c>
+      <c r="O28" s="5" t="str">
+        <f>K28*8*60+M28*60+N28</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f>K24+IF(K25&gt;K27,K25-K27,0)+IF(K26&gt;K28,K26-K28,0)</f>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="5" t="str">
+        <f>M24+IF(M25&gt;M27,M25-M27,0)+IF(M26&gt;M28,M26-M28,0)</f>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>N24+IF(N25&gt;N27,N25-N27,0)+IF(N26&gt;N28,N26-N28,0)</f>
+      </c>
+      <c r="O29" s="5" t="str">
+        <f>O24+IF(O25&gt;O27,O25-O27,0)+IF(O26&gt;O28,O26-O28,0)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>FLOOR(K30/8,1,1)&amp;"."&amp;FLOOR(MOD(K30,8),1,1)&amp;"."&amp;(MOD(K30,8)-FLOOR(MOD(K30,8),1,1))*60</f>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f>O29/60</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -189,7 +189,7 @@
     <t>VL BALANCE</t>
   </si>
   <si>
-    <t>-9.4.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>SL BALANCE</t>
@@ -781,10 +781,10 @@
         <v>50</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>SUM(H5:H18)</f>
+        <f>SUM(H5:H15)</f>
       </c>
       <c r="I22" s="5" t="str">
-        <f>SUM(I5:I18)</f>
+        <f>SUM(I5:I15)</f>
       </c>
       <c r="J22" s="5" t="s">
         <v>50</v>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -50,113 +50,110 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>03-21-2015</t>
-  </si>
-  <si>
-    <t>Saturday</t>
+    <t>02-10-2015</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>07:24:50</t>
+  </si>
+  <si>
+    <t>18:40:21</t>
   </si>
   <si>
     <t>
 </t>
   </si>
   <si>
-    <t>03-22-2015</t>
+    <t>02-11-2015</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>07:14:05</t>
+  </si>
+  <si>
+    <t>18:35:53</t>
+  </si>
+  <si>
+    <t>02-12-2015</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>07:28:24</t>
+  </si>
+  <si>
+    <t>18:35:00</t>
+  </si>
+  <si>
+    <t>02-13-2015</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>06:50:09</t>
+  </si>
+  <si>
+    <t>17:33:32</t>
+  </si>
+  <si>
+    <t>02-14-2015</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>02-15-2015</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>03-23-2015</t>
+    <t>02-16-2015</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>03-24-2015</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>07:10:42</t>
-  </si>
-  <si>
-    <t>18:35:14</t>
-  </si>
-  <si>
-    <t>03-25-2015</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>07:14:59</t>
-  </si>
-  <si>
-    <t>18:38:37</t>
-  </si>
-  <si>
-    <t>03-26-2015</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>07:13:37</t>
-  </si>
-  <si>
-    <t>18:40:53</t>
-  </si>
-  <si>
-    <t>03-27-2015</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>06:38:41</t>
-  </si>
-  <si>
-    <t>17:40:12</t>
-  </si>
-  <si>
-    <t>03-28-2015</t>
-  </si>
-  <si>
-    <t>03-29-2015</t>
-  </si>
-  <si>
-    <t>03-30-2015</t>
-  </si>
-  <si>
-    <t>06:52:07</t>
-  </si>
-  <si>
-    <t>18:38:21</t>
-  </si>
-  <si>
-    <t>03-31-2015</t>
-  </si>
-  <si>
-    <t>07:17:24</t>
-  </si>
-  <si>
-    <t>18:35:56</t>
-  </si>
-  <si>
-    <t>04-01-2015</t>
-  </si>
-  <si>
-    <t>07:00:47</t>
-  </si>
-  <si>
-    <t>18:48:30</t>
-  </si>
-  <si>
-    <t>04-02-2015</t>
-  </si>
-  <si>
-    <t>04-03-2015</t>
+    <t>07:37:41</t>
+  </si>
+  <si>
+    <t>19:15:57</t>
+  </si>
+  <si>
+    <t>02-17-2015</t>
+  </si>
+  <si>
+    <t>07:08:09</t>
+  </si>
+  <si>
+    <t>18:32:36</t>
+  </si>
+  <si>
+    <t>02-18-2015</t>
+  </si>
+  <si>
+    <t>07:26:54</t>
+  </si>
+  <si>
+    <t>18:32:39</t>
+  </si>
+  <si>
+    <t>02-19-2015</t>
+  </si>
+  <si>
+    <t>02-20-2015</t>
+  </si>
+  <si>
+    <t>07:26:27</t>
+  </si>
+  <si>
+    <t>17:40:43</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -189,10 +186,13 @@
     <t>VL BALANCE</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>4.5.0</t>
   </si>
   <si>
     <t>SL BALANCE</t>
+  </si>
+  <si>
+    <t>5.5.0</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -312,7 +312,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -389,438 +389,617 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J7" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J9" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J10" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J11" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J12" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J14" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="J15" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f>COUNT(F5:F15)</f>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="J16" s="5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f>SUM(F5:F15)</f>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="J17" s="5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>SUM(G5:G15)</f>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="J18" s="5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="5" t="str">
-        <f>COUNT(F5:F18)</f>
+        <v>49</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>SUM(H5:H15)</f>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f>SUM(I5:I15)</f>
       </c>
       <c r="J19" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="5" t="str">
-        <f>SUM(F5:F18)</f>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>FLOOR(G18/8,1,1)&amp;"."&amp;FLOOR(MOD(G18,8),1,1)&amp;"."&amp;(MOD(G18,8)-FLOOR(MOD(G18,8),1,1))*60</f>
       </c>
       <c r="C21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="5" t="str">
-        <f>SUM(G5:G18)</f>
+        <v>49</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f>INT(LEFT(B22,1))</f>
+      </c>
+      <c r="L21" s="5" t="str">
+        <f>RIGHT(B22,LEN(B22)-2)</f>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f>INT(LEFT(L21,1))</f>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f>RIGHT(L21,LEN(L21)-2)+0</f>
+      </c>
+      <c r="O21" s="5" t="str">
+        <f>K21*8*60+M21*60+N21</f>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>FLOOR(F17/8,1,1)&amp;"."&amp;FLOOR(MOD(F17,8),1,1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1,1))*60</f>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f>SUM(H5:H15)</f>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f>SUM(I5:I15)</f>
+        <v>49</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>49</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>INT(LEFT(B23,1))</f>
+      </c>
+      <c r="L22" s="5" t="str">
+        <f>RIGHT(B23,LEN(B23)-2)</f>
+      </c>
+      <c r="M22" s="5" t="str">
+        <f>INT(LEFT(L22,1))</f>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f>RIGHT(L22,LEN(L22)-2)+0</f>
+      </c>
+      <c r="O22" s="5" t="str">
+        <f>K22*8*60+M22*60+N22</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f>FLOOR(H19,1,1)&amp;"."&amp;(H19-FLOOR(H19,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>INT(LEFT(B24,1))</f>
+      </c>
+      <c r="L23" s="5" t="str">
+        <f>RIGHT(B24,LEN(B24)-2)</f>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f>INT(LEFT(L23,1))</f>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f>RIGHT(L23,LEN(L23)-2)+0</f>
+      </c>
+      <c r="O23" s="5" t="str">
+        <f>K23*8*60+M23*60+N23</f>
+      </c>
+    </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>FLOOR(G21/8,1,1)&amp;"."&amp;FLOOR(MOD(G21,8),1,1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1,1))*60</f>
+        <f>FLOOR(I19,1,1)&amp;"."&amp;(I19-FLOOR(I19,1,1))*8&amp;".0"</f>
       </c>
       <c r="C24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(B25,1))</f>
@@ -840,34 +1019,34 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <f>FLOOR(F20/8,1,1)&amp;"."&amp;FLOOR(MOD(F20,8),1,1)&amp;"."&amp;(MOD(F20,8)-FLOOR(MOD(F20,8),1,1))*60</f>
+        <v>57</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(B26,1))</f>
@@ -887,225 +1066,84 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="5" t="str">
-        <f>FLOOR(H22,1,1)&amp;"."&amp;(H22-FLOOR(H22,1,1))*8&amp;".0"</f>
+        <v>59</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f>INT(LEFT(B27,1))</f>
-      </c>
-      <c r="L26" s="5" t="str">
-        <f>RIGHT(B27,LEN(B27)-2)</f>
+        <f>K21+IF(K22&gt;K24,K22-K24,0)+IF(K23&gt;K25,K23-K25,0)</f>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="M26" s="5" t="str">
-        <f>INT(LEFT(L26,1))</f>
+        <f>M21+IF(M22&gt;M24,M22-M24,0)+IF(M23&gt;M25,M23-M25,0)</f>
       </c>
       <c r="N26" s="5" t="str">
-        <f>RIGHT(L26,LEN(L26)-2)+0</f>
+        <f>N21+IF(N22&gt;N24,N22-N24,0)+IF(N23&gt;N25,N23-N25,0)</f>
       </c>
       <c r="O26" s="5" t="str">
-        <f>K26*8*60+M26*60+N26</f>
+        <f>O21+IF(O22&gt;O24,O22-O24,0)+IF(O23&gt;O25,O23-O25,0)</f>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" s="5" t="str">
-        <f>FLOOR(I22,1,1)&amp;"."&amp;(I22-FLOOR(I22,1,1))*8&amp;".0"</f>
+        <f>FLOOR(K27/8,1,1)&amp;"."&amp;FLOOR(MOD(K27,8),1,1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1,1))*60</f>
       </c>
       <c r="C27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f>INT(LEFT(B28,1))</f>
-      </c>
-      <c r="L27" s="5" t="str">
-        <f>RIGHT(B28,LEN(B28)-2)</f>
-      </c>
-      <c r="M27" s="5" t="str">
-        <f>INT(LEFT(L27,1))</f>
-      </c>
-      <c r="N27" s="5" t="str">
-        <f>RIGHT(L27,LEN(L27)-2)+0</f>
-      </c>
-      <c r="O27" s="5" t="str">
-        <f>K27*8*60+M27*60+N27</f>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="5" t="str">
-        <f>INT(LEFT(B29,1))</f>
-      </c>
-      <c r="L28" s="5" t="str">
-        <f>RIGHT(B29,LEN(B29)-2)</f>
-      </c>
-      <c r="M28" s="5" t="str">
-        <f>INT(LEFT(L28,1))</f>
-      </c>
-      <c r="N28" s="5" t="str">
-        <f>RIGHT(L28,LEN(L28)-2)+0</f>
-      </c>
-      <c r="O28" s="5" t="str">
-        <f>K28*8*60+M28*60+N28</f>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="5" t="str">
-        <f>K24+IF(K25&gt;K27,K25-K27,0)+IF(K26&gt;K28,K26-K28,0)</f>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="5" t="str">
-        <f>M24+IF(M25&gt;M27,M25-M27,0)+IF(M26&gt;M28,M26-M28,0)</f>
-      </c>
-      <c r="N29" s="5" t="str">
-        <f>N24+IF(N25&gt;N27,N25-N27,0)+IF(N26&gt;N28,N26-N28,0)</f>
-      </c>
-      <c r="O29" s="5" t="str">
-        <f>O24+IF(O25&gt;O27,O25-O27,0)+IF(O26&gt;O28,O26-O28,0)</f>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="5" t="str">
-        <f>FLOOR(K30/8,1,1)&amp;"."&amp;FLOOR(MOD(K30,8),1,1)&amp;"."&amp;(MOD(K30,8)-FLOOR(MOD(K30,8),1,1))*60</f>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="5" t="str">
-        <f>O29/60</f>
+        <f>O26/60</f>
       </c>
     </row>
   </sheetData>
@@ -1114,13 +1152,13 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,12 +9,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="64">
   <si>
     <t>iRipple, Inc.</t>
   </si>
   <si>
-    <t>Name: Balingit,Barbara</t>
+    <t>Name: Balingit, Barbara</t>
   </si>
   <si>
     <t>Department: Accounting</t>
@@ -50,110 +50,113 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>02-10-2015</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>07:24:50</t>
-  </si>
-  <si>
-    <t>18:40:21</t>
+    <t>03-21-2015</t>
+  </si>
+  <si>
+    <t>Saturday</t>
   </si>
   <si>
     <t>
 </t>
   </si>
   <si>
-    <t>02-11-2015</t>
+    <t>03-22-2015</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>03-23-2015</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>03-24-2015</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>07:10:42</t>
+  </si>
+  <si>
+    <t>18:35:14</t>
+  </si>
+  <si>
+    <t>03-25-2015</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>07:14:05</t>
-  </si>
-  <si>
-    <t>18:35:53</t>
-  </si>
-  <si>
-    <t>02-12-2015</t>
+    <t>07:14:59</t>
+  </si>
+  <si>
+    <t>18:38:37</t>
+  </si>
+  <si>
+    <t>03-26-2015</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>07:28:24</t>
-  </si>
-  <si>
-    <t>18:35:00</t>
-  </si>
-  <si>
-    <t>02-13-2015</t>
+    <t>07:13:37</t>
+  </si>
+  <si>
+    <t>18:40:53</t>
+  </si>
+  <si>
+    <t>03-27-2015</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>06:50:09</t>
-  </si>
-  <si>
-    <t>17:33:32</t>
-  </si>
-  <si>
-    <t>02-14-2015</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>02-15-2015</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>02-16-2015</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>07:37:41</t>
-  </si>
-  <si>
-    <t>19:15:57</t>
-  </si>
-  <si>
-    <t>02-17-2015</t>
-  </si>
-  <si>
-    <t>07:08:09</t>
-  </si>
-  <si>
-    <t>18:32:36</t>
-  </si>
-  <si>
-    <t>02-18-2015</t>
-  </si>
-  <si>
-    <t>07:26:54</t>
-  </si>
-  <si>
-    <t>18:32:39</t>
-  </si>
-  <si>
-    <t>02-19-2015</t>
-  </si>
-  <si>
-    <t>02-20-2015</t>
-  </si>
-  <si>
-    <t>07:26:27</t>
-  </si>
-  <si>
-    <t>17:40:43</t>
+    <t>06:38:41</t>
+  </si>
+  <si>
+    <t>17:40:12</t>
+  </si>
+  <si>
+    <t>03-28-2015</t>
+  </si>
+  <si>
+    <t>03-29-2015</t>
+  </si>
+  <si>
+    <t>03-30-2015</t>
+  </si>
+  <si>
+    <t>06:52:07</t>
+  </si>
+  <si>
+    <t>18:38:21</t>
+  </si>
+  <si>
+    <t>03-31-2015</t>
+  </si>
+  <si>
+    <t>07:17:24</t>
+  </si>
+  <si>
+    <t>18:35:56</t>
+  </si>
+  <si>
+    <t>04-01-2015</t>
+  </si>
+  <si>
+    <t>07:00:47</t>
+  </si>
+  <si>
+    <t>18:48:30</t>
+  </si>
+  <si>
+    <t>04-02-2015</t>
+  </si>
+  <si>
+    <t>04-03-2015</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -171,6 +174,9 @@
     <t>TOTAL LEAVES ACCUMULATED</t>
   </si>
   <si>
+    <t>@@cut_off_date.to_date.mon &gt;= self.date_start.to_date.mon &amp;&amp; @@cut_off_date.to_date.mon &lt;= self.date_end.to_date.mon</t>
+  </si>
+  <si>
     <t>ACCUMULATED OT</t>
   </si>
   <si>
@@ -186,7 +192,7 @@
     <t>VL BALANCE</t>
   </si>
   <si>
-    <t>4.5.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>SL BALANCE</t>
@@ -312,14 +318,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="37.82022471910113"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="86.68988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.884831460674157"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.184831460674157"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="24.434831460674157"/>
@@ -389,16 +395,10 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -409,26 +409,20 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -439,26 +433,20 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -469,26 +457,24 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -499,22 +485,24 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -525,22 +513,24 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -551,26 +541,24 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -581,26 +569,20 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -611,26 +593,20 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -641,22 +617,24 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -667,26 +645,24 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5" t="n">
         <v>0.0</v>
       </c>
@@ -697,309 +673,244 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="5" t="str">
-        <f>COUNT(F5:F15)</f>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.0</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f>SUM(F5:F15)</f>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.0</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="5" t="str">
-        <f>SUM(G5:G15)</f>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.0</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f>COUNT(F5:F18)</f>
       </c>
       <c r="G19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f>SUM(H5:H15)</f>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f>SUM(I5:I15)</f>
+        <v>50</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f>SUM(F5:F18)</f>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="5" t="str">
-        <f>FLOOR(G18/8,1,1)&amp;"."&amp;FLOOR(MOD(G18,8),1,1)&amp;"."&amp;(MOD(G18,8)-FLOOR(MOD(G18,8),1,1))*60</f>
+        <v>52</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>SUM(G5:G18)</f>
       </c>
       <c r="H21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="5" t="str">
-        <f>INT(LEFT(B22,1))</f>
-      </c>
-      <c r="L21" s="5" t="str">
-        <f>RIGHT(B22,LEN(B22)-2)</f>
-      </c>
-      <c r="M21" s="5" t="str">
-        <f>INT(LEFT(L21,1))</f>
-      </c>
-      <c r="N21" s="5" t="str">
-        <f>RIGHT(L21,LEN(L21)-2)+0</f>
-      </c>
-      <c r="O21" s="5" t="str">
-        <f>K21*8*60+M21*60+N21</f>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="5" t="str">
-        <f>FLOOR(F17/8,1,1)&amp;"."&amp;FLOOR(MOD(F17,8),1,1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1,1))*60</f>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>SUM(H5:H14)</f>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>SUM(I5:I14)</f>
       </c>
       <c r="J22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="5" t="str">
-        <f>INT(LEFT(B23,1))</f>
-      </c>
-      <c r="L22" s="5" t="str">
-        <f>RIGHT(B23,LEN(B23)-2)</f>
-      </c>
-      <c r="M22" s="5" t="str">
-        <f>INT(LEFT(L22,1))</f>
-      </c>
-      <c r="N22" s="5" t="str">
-        <f>RIGHT(L22,LEN(L22)-2)+0</f>
-      </c>
-      <c r="O22" s="5" t="str">
-        <f>K22*8*60+M22*60+N22</f>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="5" t="str">
-        <f>FLOOR(H19,1,1)&amp;"."&amp;(H19-FLOOR(H19,1,1))*8&amp;".0"</f>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f>INT(LEFT(B24,1))</f>
-      </c>
-      <c r="L23" s="5" t="str">
-        <f>RIGHT(B24,LEN(B24)-2)</f>
-      </c>
-      <c r="M23" s="5" t="str">
-        <f>INT(LEFT(L23,1))</f>
-      </c>
-      <c r="N23" s="5" t="str">
-        <f>RIGHT(L23,LEN(L23)-2)+0</f>
-      </c>
-      <c r="O23" s="5" t="str">
-        <f>K23*8*60+M23*60+N23</f>
-      </c>
-    </row>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>FLOOR(I19,1,1)&amp;"."&amp;(I19-FLOOR(I19,1,1))*8&amp;".0"</f>
+        <f>FLOOR(G21/8,1,1)&amp;"."&amp;FLOOR(MOD(G21,8),1,1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1,1))*60</f>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(B25,1))</f>
@@ -1019,34 +930,34 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>FLOOR(F20/8,1,1)&amp;"."&amp;FLOOR(MOD(F20,8),1,1)&amp;"."&amp;(MOD(F20,8)-FLOOR(MOD(F20,8),1,1))*60</f>
       </c>
       <c r="C25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(B26,1))</f>
@@ -1066,84 +977,225 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>FLOOR(H22,1,1)&amp;"."&amp;(H22-FLOOR(H22,1,1))*8&amp;".0"</f>
       </c>
       <c r="C26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f>K21+IF(K22&gt;K24,K22-K24,0)+IF(K23&gt;K25,K23-K25,0)</f>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>49</v>
+        <f>INT(LEFT(B27,1))</f>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f>RIGHT(B27,LEN(B27)-2)</f>
       </c>
       <c r="M26" s="5" t="str">
-        <f>M21+IF(M22&gt;M24,M22-M24,0)+IF(M23&gt;M25,M23-M25,0)</f>
+        <f>INT(LEFT(L26,1))</f>
       </c>
       <c r="N26" s="5" t="str">
-        <f>N21+IF(N22&gt;N24,N22-N24,0)+IF(N23&gt;N25,N23-N25,0)</f>
+        <f>RIGHT(L26,LEN(L26)-2)+0</f>
       </c>
       <c r="O26" s="5" t="str">
-        <f>O21+IF(O22&gt;O24,O22-O24,0)+IF(O23&gt;O25,O23-O25,0)</f>
+        <f>K26*8*60+M26*60+N26</f>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>FLOOR(I22,1,1)&amp;"."&amp;(I22-FLOOR(I22,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f>INT(LEFT(B28,1))</f>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f>RIGHT(B28,LEN(B28)-2)</f>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f>INT(LEFT(L27,1))</f>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>RIGHT(L27,LEN(L27)-2)+0</f>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f>K27*8*60+M27*60+N27</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f>INT(LEFT(B29,1))</f>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f>RIGHT(B29,LEN(B29)-2)</f>
+      </c>
+      <c r="M28" s="5" t="str">
+        <f>INT(LEFT(L28,1))</f>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>RIGHT(L28,LEN(L28)-2)+0</f>
+      </c>
+      <c r="O28" s="5" t="str">
+        <f>K28*8*60+M28*60+N28</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="5" t="str">
-        <f>FLOOR(K27/8,1,1)&amp;"."&amp;FLOOR(MOD(K27,8),1,1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1,1))*60</f>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="5" t="str">
-        <f>O26/60</f>
+      <c r="B29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f>K24+IF(K25&gt;K27,K25-K27,0)+IF(K26&gt;K28,K26-K28,0)</f>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="5" t="str">
+        <f>M24+IF(M25&gt;M27,M25-M27,0)+IF(M26&gt;M28,M26-M28,0)</f>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>N24+IF(N25&gt;N27,N25-N27,0)+IF(N26&gt;N28,N26-N28,0)</f>
+      </c>
+      <c r="O29" s="5" t="str">
+        <f>O24+IF(O25&gt;O27,O25-O27,0)+IF(O26&gt;O28,O26-O28,0)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>FLOOR(K30/8,1,1)&amp;"."&amp;FLOOR(MOD(K30,8),1,1)&amp;"."&amp;(MOD(K30,8)-FLOOR(MOD(K30,8),1,1))*60</f>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f>O29/60</f>
       </c>
     </row>
   </sheetData>
@@ -1152,13 +1204,13 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -32,7 +32,7 @@
     <t>TIME OUT</t>
   </si>
   <si>
-    <t>UT DEPARTURE</t>
+    <t>APPROVED UNDERTIME</t>
   </si>
   <si>
     <t>NO OF HOURS LATE</t>
@@ -328,7 +328,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="86.68988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.884831460674157"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.184831460674157"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.434831460674157"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.68483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="27.734831460674155"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="34.33483146067415"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="24.434831460674157"/>
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>15</v>
@@ -430,7 +430,7 @@
         <v>0.0</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>15</v>
@@ -454,7 +454,7 @@
         <v>0.0</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>15</v>
@@ -482,7 +482,7 @@
         <v>0.0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>15</v>
@@ -510,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>15</v>
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>15</v>
@@ -566,7 +566,7 @@
         <v>0.0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>15</v>
@@ -590,7 +590,7 @@
         <v>0.0</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>15</v>
@@ -614,7 +614,7 @@
         <v>0.0</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
@@ -642,7 +642,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>15</v>
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>15</v>
@@ -698,7 +698,7 @@
         <v>0.0</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>15</v>
@@ -722,7 +722,7 @@
         <v>0.0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>15</v>
@@ -746,7 +746,7 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>15</v>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -50,166 +50,121 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>04-04-2015</t>
+    <t>03-07-2015</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>04-05-2015</t>
+    <t>03-08-2015</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>04-06-2015</t>
+    <t>03-09-2015</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>06:34:42</t>
-  </si>
-  <si>
-    <t>18:38:19</t>
-  </si>
-  <si>
-    <t>04-07-2015</t>
+    <t>07:14:39</t>
+  </si>
+  <si>
+    <t>20:08:15</t>
+  </si>
+  <si>
+    <t>03-10-2015</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>06:28:32</t>
-  </si>
-  <si>
-    <t>18:35:24</t>
-  </si>
-  <si>
-    <t>04-08-2015</t>
+    <t>07:50:09</t>
+  </si>
+  <si>
+    <t>18:47:02</t>
+  </si>
+  <si>
+    <t>03-11-2015</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>07:27:40</t>
-  </si>
-  <si>
-    <t>17:05:45</t>
-  </si>
-  <si>
-    <t>04-09-2015</t>
+    <t>07:03:37</t>
+  </si>
+  <si>
+    <t>19:37:54</t>
+  </si>
+  <si>
+    <t>03-12-2015</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>04-10-2015</t>
+    <t>07:46:14</t>
+  </si>
+  <si>
+    <t>18:41:24</t>
+  </si>
+  <si>
+    <t>03-13-2015</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>06:42:08</t>
-  </si>
-  <si>
-    <t>17:37:38</t>
-  </si>
-  <si>
-    <t>04-11-2015</t>
-  </si>
-  <si>
-    <t>04-12-2015</t>
-  </si>
-  <si>
-    <t>04-13-2015</t>
-  </si>
-  <si>
-    <t>06:35:01</t>
-  </si>
-  <si>
-    <t>19:31:49</t>
-  </si>
-  <si>
-    <t>04-14-2015</t>
-  </si>
-  <si>
-    <t>06:49:29</t>
-  </si>
-  <si>
-    <t>18:35:08</t>
-  </si>
-  <si>
-    <t>04-15-2015</t>
-  </si>
-  <si>
-    <t>06:38:14</t>
-  </si>
-  <si>
-    <t>18:34:37</t>
-  </si>
-  <si>
-    <t>04-16-2015</t>
-  </si>
-  <si>
-    <t>06:53:57</t>
-  </si>
-  <si>
-    <t>18:34:03</t>
-  </si>
-  <si>
-    <t>04-17-2015</t>
-  </si>
-  <si>
-    <t>06:47:04</t>
-  </si>
-  <si>
-    <t>15:58:59</t>
-  </si>
-  <si>
-    <t>04-18-2015</t>
-  </si>
-  <si>
-    <t>04-19-2015</t>
-  </si>
-  <si>
-    <t>04-20-2015</t>
-  </si>
-  <si>
-    <t>06:56:21</t>
-  </si>
-  <si>
-    <t>18:36:16</t>
-  </si>
-  <si>
-    <t>04-21-2015</t>
-  </si>
-  <si>
-    <t>06:37:58</t>
-  </si>
-  <si>
-    <t>18:34:27</t>
-  </si>
-  <si>
-    <t>04-22-2015</t>
-  </si>
-  <si>
-    <t>04-23-2015</t>
-  </si>
-  <si>
-    <t>06:34:53</t>
-  </si>
-  <si>
-    <t>18:35:29</t>
-  </si>
-  <si>
-    <t>04-24-2015</t>
-  </si>
-  <si>
-    <t>06:39:50</t>
-  </si>
-  <si>
-    <t>17:51:23</t>
+    <t>10:32:58</t>
+  </si>
+  <si>
+    <t>17:47:29</t>
+  </si>
+  <si>
+    <t>03-14-2015</t>
+  </si>
+  <si>
+    <t>03-15-2015</t>
+  </si>
+  <si>
+    <t>03-16-2015</t>
+  </si>
+  <si>
+    <t>07:22:51</t>
+  </si>
+  <si>
+    <t>18:37:43</t>
+  </si>
+  <si>
+    <t>03-17-2015</t>
+  </si>
+  <si>
+    <t>07:44:30</t>
+  </si>
+  <si>
+    <t>18:40:14</t>
+  </si>
+  <si>
+    <t>03-18-2015</t>
+  </si>
+  <si>
+    <t>07:07:27</t>
+  </si>
+  <si>
+    <t>18:42:43</t>
+  </si>
+  <si>
+    <t>03-19-2015</t>
+  </si>
+  <si>
+    <t>03-20-2015</t>
+  </si>
+  <si>
+    <t>06:59:24</t>
+  </si>
+  <si>
+    <t>17:33:40</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -227,9 +182,6 @@
     <t>TOTAL LEAVES ACCUMULATED</t>
   </si>
   <si>
-    <t>@@cut_off_date.to_date.mon &gt;= self.date_start.to_date.mon &amp;&amp; @@cut_off_date.to_date.mon &lt;= self.date_end.to_date.mon</t>
-  </si>
-  <si>
     <t>ACCUMULATED OT</t>
   </si>
   <si>
@@ -245,10 +197,13 @@
     <t>VL BALANCE</t>
   </si>
   <si>
-    <t>7.5.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>SL BALANCE</t>
+  </si>
+  <si>
+    <t>5.5.0</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -368,14 +323,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="37.82022471910113"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="86.68988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.884831460674157"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.184831460674157"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="32.68483146067416"/>
@@ -587,8 +542,12 @@
       <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="n">
@@ -608,16 +567,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -628,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
@@ -638,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -664,7 +623,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -690,16 +649,16 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -720,16 +679,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -750,16 +709,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -780,17 +739,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="n">
@@ -813,7 +768,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>50</v>
@@ -830,7 +785,7 @@
         <v>0.0</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
@@ -843,643 +798,445 @@
         <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f>COUNT(F5:F18)</f>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="5" t="str">
+        <f>SUM(F5:F18)</f>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>SUM(G5:G18)</f>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I23" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J23" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>SUM(H5:H18)</f>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f>SUM(I5:I18)</f>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23"/>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>FLOOR(G21/8,1,1)&amp;"."&amp;FLOOR(MOD(G21,8),1,1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1,1))*60</f>
       </c>
       <c r="C24" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H24" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I24" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f>INT(LEFT(B25,1))</f>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f>RIGHT(B25,LEN(B25)-2)</f>
+      </c>
+      <c r="M24" s="5" t="str">
+        <f>INT(LEFT(L24,1))</f>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f>RIGHT(L24,LEN(L24)-2)+0</f>
+      </c>
+      <c r="O24" s="5" t="str">
+        <f>K24*8*60+M24*60+N24</f>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="B25" s="5" t="str">
+        <f>FLOOR(F20/8,1,1)&amp;"."&amp;FLOOR(MOD(F20,8),1,1)&amp;"."&amp;(MOD(F20,8)-FLOOR(MOD(F20,8),1,1))*60</f>
       </c>
       <c r="C25" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f>INT(LEFT(B26,1))</f>
+      </c>
+      <c r="L25" s="5" t="str">
+        <f>RIGHT(B26,LEN(B26)-2)</f>
+      </c>
+      <c r="M25" s="5" t="str">
+        <f>INT(LEFT(L25,1))</f>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>RIGHT(L25,LEN(L25)-2)+0</f>
+      </c>
+      <c r="O25" s="5" t="str">
+        <f>K25*8*60+M25*60+N25</f>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="B26" s="5" t="str">
+        <f>FLOOR(H22,1,1)&amp;"."&amp;(H22-FLOOR(H22,1,1))*8&amp;".0"</f>
       </c>
       <c r="C26" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="5" t="str">
-        <f>COUNT(F5:F25)</f>
+        <v>53</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f>INT(LEFT(B27,1))</f>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f>RIGHT(B27,LEN(B27)-2)</f>
+      </c>
+      <c r="M26" s="5" t="str">
+        <f>INT(LEFT(L26,1))</f>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f>RIGHT(L26,LEN(L26)-2)+0</f>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f>K26*8*60+M26*60+N26</f>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="5" t="str">
+        <f>FLOOR(I22,1,1)&amp;"."&amp;(I22-FLOOR(I22,1,1))*8&amp;".0"</f>
       </c>
       <c r="C27" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="5" t="str">
-        <f>SUM(F5:F25)</f>
+        <v>53</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f>INT(LEFT(B28,1))</f>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f>RIGHT(B28,LEN(B28)-2)</f>
+      </c>
+      <c r="M27" s="5" t="str">
+        <f>INT(LEFT(L27,1))</f>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>RIGHT(L27,LEN(L27)-2)+0</f>
+      </c>
+      <c r="O27" s="5" t="str">
+        <f>K27*8*60+M27*60+N27</f>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="5" t="str">
-        <f>SUM(G5:G25)</f>
+        <v>53</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f>INT(LEFT(B29,1))</f>
+      </c>
+      <c r="L28" s="5" t="str">
+        <f>RIGHT(B29,LEN(B29)-2)</f>
+      </c>
+      <c r="M28" s="5" t="str">
+        <f>INT(LEFT(L28,1))</f>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>RIGHT(L28,LEN(L28)-2)+0</f>
+      </c>
+      <c r="O28" s="5" t="str">
+        <f>K28*8*60+M28*60+N28</f>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="5" t="str">
-        <f>SUM(H5:H4)</f>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f>SUM(I5:I4)</f>
+        <v>53</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30"/>
-    <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="5" t="str">
-        <f>FLOOR(G28/8,1,1)&amp;"."&amp;FLOOR(MOD(G28,8),1,1)&amp;"."&amp;(MOD(G28,8)-FLOOR(MOD(G28,8),1,1))*60</f>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="5" t="str">
-        <f>INT(LEFT(B32,1))</f>
-      </c>
-      <c r="L31" s="5" t="str">
-        <f>RIGHT(B32,LEN(B32)-2)</f>
-      </c>
-      <c r="M31" s="5" t="str">
-        <f>INT(LEFT(L31,1))</f>
-      </c>
-      <c r="N31" s="5" t="str">
-        <f>RIGHT(L31,LEN(L31)-2)+0</f>
-      </c>
-      <c r="O31" s="5" t="str">
-        <f>K31*8*60+M31*60+N31</f>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="5" t="str">
-        <f>FLOOR(F27/8,1,1)&amp;"."&amp;FLOOR(MOD(F27,8),1,1)&amp;"."&amp;(MOD(F27,8)-FLOOR(MOD(F27,8),1,1))*60</f>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32" s="5" t="str">
-        <f>INT(LEFT(B33,1))</f>
-      </c>
-      <c r="L32" s="5" t="str">
-        <f>RIGHT(B33,LEN(B33)-2)</f>
-      </c>
-      <c r="M32" s="5" t="str">
-        <f>INT(LEFT(L32,1))</f>
-      </c>
-      <c r="N32" s="5" t="str">
-        <f>RIGHT(L32,LEN(L32)-2)+0</f>
-      </c>
-      <c r="O32" s="5" t="str">
-        <f>K32*8*60+M32*60+N32</f>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="5" t="str">
-        <f>FLOOR(H29,1,1)&amp;"."&amp;(H29-FLOOR(H29,1,1))*8&amp;".0"</f>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="5" t="str">
-        <f>INT(LEFT(B34,1))</f>
-      </c>
-      <c r="L33" s="5" t="str">
-        <f>RIGHT(B34,LEN(B34)-2)</f>
-      </c>
-      <c r="M33" s="5" t="str">
-        <f>INT(LEFT(L33,1))</f>
-      </c>
-      <c r="N33" s="5" t="str">
-        <f>RIGHT(L33,LEN(L33)-2)+0</f>
-      </c>
-      <c r="O33" s="5" t="str">
-        <f>K33*8*60+M33*60+N33</f>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="5" t="str">
-        <f>FLOOR(I29,1,1)&amp;"."&amp;(I29-FLOOR(I29,1,1))*8&amp;".0"</f>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" s="5" t="str">
-        <f>INT(LEFT(B35,1))</f>
-      </c>
-      <c r="L34" s="5" t="str">
-        <f>RIGHT(B35,LEN(B35)-2)</f>
-      </c>
-      <c r="M34" s="5" t="str">
-        <f>INT(LEFT(L34,1))</f>
-      </c>
-      <c r="N34" s="5" t="str">
-        <f>RIGHT(L34,LEN(L34)-2)+0</f>
-      </c>
-      <c r="O34" s="5" t="str">
-        <f>K34*8*60+M34*60+N34</f>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K35" s="5" t="str">
-        <f>INT(LEFT(B36,1))</f>
-      </c>
-      <c r="L35" s="5" t="str">
-        <f>RIGHT(B36,LEN(B36)-2)</f>
-      </c>
-      <c r="M35" s="5" t="str">
-        <f>INT(LEFT(L35,1))</f>
-      </c>
-      <c r="N35" s="5" t="str">
-        <f>RIGHT(L35,LEN(L35)-2)+0</f>
-      </c>
-      <c r="O35" s="5" t="str">
-        <f>K35*8*60+M35*60+N35</f>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K36" s="5" t="str">
-        <f>K31+IF(K32&gt;K34,K32-K34,0)+IF(K33&gt;K35,K33-K35,0)</f>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M36" s="5" t="str">
-        <f>M31+IF(M32&gt;M34,M32-M34,0)+IF(M33&gt;M35,M33-M35,0)</f>
-      </c>
-      <c r="N36" s="5" t="str">
-        <f>N31+IF(N32&gt;N34,N32-N34,0)+IF(N33&gt;N35,N33-N35,0)</f>
-      </c>
-      <c r="O36" s="5" t="str">
-        <f>O31+IF(O32&gt;O34,O32-O34,0)+IF(O33&gt;O35,O33-O35,0)</f>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="5" t="str">
-        <f>FLOOR(K37/8,1,1)&amp;"."&amp;FLOOR(MOD(K37,8),1,1)&amp;"."&amp;(MOD(K37,8)-FLOOR(MOD(K37,8),1,1))*60</f>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K37" s="5" t="str">
-        <f>O36/60</f>
+        <v>53</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f>K24+IF(K25&gt;K27,K25-K27,0)+IF(K26&gt;K28,K26-K28,0)</f>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="5" t="str">
+        <f>M24+IF(M25&gt;M27,M25-M27,0)+IF(M26&gt;M28,M26-M28,0)</f>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>N24+IF(N25&gt;N27,N25-N27,0)+IF(N26&gt;N28,N26-N28,0)</f>
+      </c>
+      <c r="O29" s="5" t="str">
+        <f>O24+IF(O25&gt;O27,O25-O27,0)+IF(O26&gt;O28,O26-O28,0)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>FLOOR(K30/8,1,1)&amp;"."&amp;FLOOR(MOD(K30,8),1,1)&amp;"."&amp;(MOD(K30,8)-FLOOR(MOD(K30,8),1,1))*60</f>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f>O29/60</f>
       </c>
     </row>
   </sheetData>
@@ -1488,13 +1245,13 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -50,121 +50,106 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>03-07-2015</t>
+    <t>02-10-2015</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>07:24:50</t>
+  </si>
+  <si>
+    <t>18:40:21</t>
+  </si>
+  <si>
+    <t>02-11-2015</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>07:14:05</t>
+  </si>
+  <si>
+    <t>18:35:53</t>
+  </si>
+  <si>
+    <t>02-12-2015</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>07:28:24</t>
+  </si>
+  <si>
+    <t>18:35:00</t>
+  </si>
+  <si>
+    <t>02-13-2015</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>06:50:09</t>
+  </si>
+  <si>
+    <t>17:33:32</t>
+  </si>
+  <si>
+    <t>02-14-2015</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>03-08-2015</t>
+    <t>02-15-2015</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>03-09-2015</t>
+    <t>02-16-2015</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>07:14:39</t>
-  </si>
-  <si>
-    <t>20:08:15</t>
-  </si>
-  <si>
-    <t>03-10-2015</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>07:50:09</t>
-  </si>
-  <si>
-    <t>18:47:02</t>
-  </si>
-  <si>
-    <t>03-11-2015</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>07:03:37</t>
-  </si>
-  <si>
-    <t>19:37:54</t>
-  </si>
-  <si>
-    <t>03-12-2015</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>07:46:14</t>
-  </si>
-  <si>
-    <t>18:41:24</t>
-  </si>
-  <si>
-    <t>03-13-2015</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>10:32:58</t>
-  </si>
-  <si>
-    <t>17:47:29</t>
-  </si>
-  <si>
-    <t>03-14-2015</t>
-  </si>
-  <si>
-    <t>03-15-2015</t>
-  </si>
-  <si>
-    <t>03-16-2015</t>
-  </si>
-  <si>
-    <t>07:22:51</t>
-  </si>
-  <si>
-    <t>18:37:43</t>
-  </si>
-  <si>
-    <t>03-17-2015</t>
-  </si>
-  <si>
-    <t>07:44:30</t>
-  </si>
-  <si>
-    <t>18:40:14</t>
-  </si>
-  <si>
-    <t>03-18-2015</t>
-  </si>
-  <si>
-    <t>07:07:27</t>
-  </si>
-  <si>
-    <t>18:42:43</t>
-  </si>
-  <si>
-    <t>03-19-2015</t>
-  </si>
-  <si>
-    <t>03-20-2015</t>
-  </si>
-  <si>
-    <t>06:59:24</t>
-  </si>
-  <si>
-    <t>17:33:40</t>
+    <t>07:37:41</t>
+  </si>
+  <si>
+    <t>19:15:57</t>
+  </si>
+  <si>
+    <t>02-17-2015</t>
+  </si>
+  <si>
+    <t>07:08:09</t>
+  </si>
+  <si>
+    <t>18:32:36</t>
+  </si>
+  <si>
+    <t>02-18-2015</t>
+  </si>
+  <si>
+    <t>07:26:54</t>
+  </si>
+  <si>
+    <t>18:32:39</t>
+  </si>
+  <si>
+    <t>02-19-2015</t>
+  </si>
+  <si>
+    <t>02-20-2015</t>
+  </si>
+  <si>
+    <t>07:26:27</t>
+  </si>
+  <si>
+    <t>17:40:43</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -197,7 +182,7 @@
     <t>VL BALANCE</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>4.5.0</t>
   </si>
   <si>
     <t>SL BALANCE</t>
@@ -323,7 +308,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -400,8 +385,12 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="n">
@@ -421,13 +410,17 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="n">
@@ -447,16 +440,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -477,16 +470,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -507,17 +500,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="n">
@@ -537,17 +526,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="n">
@@ -587,7 +572,7 @@
         <v>0.0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
@@ -602,8 +587,12 @@
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="n">
@@ -623,13 +612,17 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="n">
@@ -649,17 +642,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="n">
@@ -679,16 +668,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -709,249 +698,304 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f>COUNT(F5:F15)</f>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="5" t="str">
+        <f>SUM(F5:F15)</f>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>48</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>SUM(G5:G15)</f>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="5" t="str">
-        <f>COUNT(F5:F18)</f>
+        <v>48</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>SUM(H5:H15)</f>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f>SUM(I5:I15)</f>
       </c>
       <c r="J19" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="5" t="str">
-        <f>SUM(F5:F18)</f>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B21" s="5" t="str">
+        <f>FLOOR(G18/8,1)&amp;"."&amp;FLOOR(MOD(G18,8),1)&amp;"."&amp;(MOD(G18,8)-FLOOR(MOD(G18,8),1))*60</f>
       </c>
       <c r="C21" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="5" t="str">
-        <f>SUM(G5:G18)</f>
+        <v>48</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f>INT(LEFT(B22,1))</f>
+      </c>
+      <c r="L21" s="5" t="str">
+        <f>RIGHT(B22,LEN(B22)-2)</f>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f>INT(LEFT(L21,1))</f>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f>RIGHT(L21,LEN(L21)-2)+0</f>
+      </c>
+      <c r="O21" s="5" t="str">
+        <f>K21*8*60+M21*60+N21</f>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="B22" s="5" t="str">
+        <f>FLOOR(F17/8,1,1)&amp;"."&amp;FLOOR(MOD(F17,8),1,1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1,1))*60</f>
+      </c>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f>SUM(H5:H18)</f>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f>SUM(I5:I18)</f>
+        <v>48</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23"/>
+        <v>48</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f>INT(LEFT(B23,1))</f>
+      </c>
+      <c r="L22" s="5" t="str">
+        <f>RIGHT(B23,LEN(B23)-2)</f>
+      </c>
+      <c r="M22" s="5" t="str">
+        <f>INT(LEFT(L22,1))</f>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f>RIGHT(L22,LEN(L22)-2)+0</f>
+      </c>
+      <c r="O22" s="5" t="str">
+        <f>K22*8*60+M22*60+N22</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="5" t="str">
+        <f>FLOOR(H19,1,1)&amp;"."&amp;(H19-FLOOR(H19,1,1))*8&amp;".0"</f>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f>INT(LEFT(B24,1))</f>
+      </c>
+      <c r="L23" s="5" t="str">
+        <f>RIGHT(B24,LEN(B24)-2)</f>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f>INT(LEFT(L23,1))</f>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f>RIGHT(L23,LEN(L23)-2)+0</f>
+      </c>
+      <c r="O23" s="5" t="str">
+        <f>K23*8*60+M23*60+N23</f>
+      </c>
+    </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>FLOOR(G21/8,1,1)&amp;"."&amp;FLOOR(MOD(G21,8),1,1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1,1))*60</f>
+        <f>FLOOR(I19,1,1)&amp;"."&amp;(I19-FLOOR(I19,1,1))*8&amp;".0"</f>
       </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(B25,1))</f>
@@ -971,34 +1015,34 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="5" t="str">
-        <f>FLOOR(F20/8,1,1)&amp;"."&amp;FLOOR(MOD(F20,8),1,1)&amp;"."&amp;(MOD(F20,8)-FLOOR(MOD(F20,8),1,1))*60</f>
+        <v>56</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(B26,1))</f>
@@ -1018,49 +1062,49 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="5" t="str">
-        <f>FLOOR(H22,1,1)&amp;"."&amp;(H22-FLOOR(H22,1,1))*8&amp;".0"</f>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f>INT(LEFT(B27,1))</f>
-      </c>
-      <c r="L26" s="5" t="str">
-        <f>RIGHT(B27,LEN(B27)-2)</f>
+        <f>K21+IF(K22&gt;K24,K22-K24,0)+IF(K23&gt;K25,K23-K25,0)</f>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="M26" s="5" t="str">
-        <f>INT(LEFT(L26,1))</f>
+        <f>M21+IF(M22&gt;M24,M22-M24,0)+IF(M23&gt;M25,M23-M25,0)</f>
       </c>
       <c r="N26" s="5" t="str">
-        <f>RIGHT(L26,LEN(L26)-2)+0</f>
+        <f>N21+IF(N22&gt;N24,N22-N24,0)+IF(N23&gt;N25,N23-N25,0)</f>
       </c>
       <c r="O26" s="5" t="str">
-        <f>K26*8*60+M26*60+N26</f>
+        <f>O21+IF(O22&gt;O24,O22-O24,0)+IF(O23&gt;O25,O23-O25,0)</f>
       </c>
     </row>
     <row r="27">
@@ -1068,175 +1112,34 @@
         <v>60</v>
       </c>
       <c r="B27" s="5" t="str">
-        <f>FLOOR(I22,1,1)&amp;"."&amp;(I22-FLOOR(I22,1,1))*8&amp;".0"</f>
+        <f>FLOOR(K27/8,1,1)&amp;"."&amp;FLOOR(MOD(K27,8),1,1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1,1))*60</f>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f>INT(LEFT(B28,1))</f>
-      </c>
-      <c r="L27" s="5" t="str">
-        <f>RIGHT(B28,LEN(B28)-2)</f>
-      </c>
-      <c r="M27" s="5" t="str">
-        <f>INT(LEFT(L27,1))</f>
-      </c>
-      <c r="N27" s="5" t="str">
-        <f>RIGHT(L27,LEN(L27)-2)+0</f>
-      </c>
-      <c r="O27" s="5" t="str">
-        <f>K27*8*60+M27*60+N27</f>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="5" t="str">
-        <f>INT(LEFT(B29,1))</f>
-      </c>
-      <c r="L28" s="5" t="str">
-        <f>RIGHT(B29,LEN(B29)-2)</f>
-      </c>
-      <c r="M28" s="5" t="str">
-        <f>INT(LEFT(L28,1))</f>
-      </c>
-      <c r="N28" s="5" t="str">
-        <f>RIGHT(L28,LEN(L28)-2)+0</f>
-      </c>
-      <c r="O28" s="5" t="str">
-        <f>K28*8*60+M28*60+N28</f>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="5" t="str">
-        <f>K24+IF(K25&gt;K27,K25-K27,0)+IF(K26&gt;K28,K26-K28,0)</f>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" s="5" t="str">
-        <f>M24+IF(M25&gt;M27,M25-M27,0)+IF(M26&gt;M28,M26-M28,0)</f>
-      </c>
-      <c r="N29" s="5" t="str">
-        <f>N24+IF(N25&gt;N27,N25-N27,0)+IF(N26&gt;N28,N26-N28,0)</f>
-      </c>
-      <c r="O29" s="5" t="str">
-        <f>O24+IF(O25&gt;O27,O25-O27,0)+IF(O26&gt;O28,O26-O28,0)</f>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="5" t="str">
-        <f>FLOOR(K30/8,1,1)&amp;"."&amp;FLOOR(MOD(K30,8),1,1)&amp;"."&amp;(MOD(K30,8)-FLOOR(MOD(K30,8),1,1))*60</f>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="5" t="str">
-        <f>O29/60</f>
+        <f>O26/60</f>
       </c>
     </row>
   </sheetData>
@@ -1245,13 +1148,13 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="61">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -202,7 +202,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -226,16 +226,46 @@
       <sz val="11"/>
       <family val="1"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29A3CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF5E5E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -253,37 +283,79 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -292,6 +364,15 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf borderId="3" numFmtId="0" fontId="3" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf borderId="4" numFmtId="0" fontId="4" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf borderId="5" numFmtId="0" fontId="5" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf borderId="6" numFmtId="0" fontId="6" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -641,26 +722,26 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -796,8 +877,8 @@
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
+      <c r="B19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>48</v>
@@ -877,7 +958,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="5" t="str">
-        <f>FLOOR(F17/8,1,1)&amp;"."&amp;FLOOR(MOD(F17,8),1,1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1,1))*60</f>
+        <f>FLOOR(F17/8,1)&amp;"."&amp;FLOOR(MOD(F17,8),1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1))*60</f>
       </c>
       <c r="C22" s="5" t="s">
         <v>48</v>
@@ -924,7 +1005,7 @@
         <v>54</v>
       </c>
       <c r="B23" s="5" t="str">
-        <f>FLOOR(H19,1,1)&amp;"."&amp;(H19-FLOOR(H19,1,1))*8&amp;".0"</f>
+        <f>FLOOR(H19,1)&amp;"."&amp;(H19-FLOOR(H19,1))*8&amp;".0"</f>
       </c>
       <c r="C23" s="5" t="s">
         <v>48</v>
@@ -971,7 +1052,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="5" t="str">
-        <f>FLOOR(I19,1,1)&amp;"."&amp;(I19-FLOOR(I19,1,1))*8&amp;".0"</f>
+        <f>FLOOR(I19,1)&amp;"."&amp;(I19-FLOOR(I19,1))*8&amp;".0"</f>
       </c>
       <c r="C24" s="5" t="s">
         <v>48</v>
@@ -1112,7 +1193,7 @@
         <v>60</v>
       </c>
       <c r="B27" s="5" t="str">
-        <f>FLOOR(K27/8,1,1)&amp;"."&amp;FLOOR(MOD(K27,8),1,1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1,1))*60</f>
+        <f>FLOOR(K27/8,1)&amp;"."&amp;FLOOR(MOD(K27,8),1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1))*60</f>
       </c>
       <c r="C27" s="5" t="s">
         <v>48</v>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -50,106 +50,166 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>02-10-2015</t>
+    <t>04-04-2015</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>04-05-2015</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>04-06-2015</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>06:34:42</t>
+  </si>
+  <si>
+    <t>18:38:19</t>
+  </si>
+  <si>
+    <t>04-07-2015</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>07:24:50</t>
-  </si>
-  <si>
-    <t>18:40:21</t>
-  </si>
-  <si>
-    <t>02-11-2015</t>
+    <t>06:28:32</t>
+  </si>
+  <si>
+    <t>18:35:24</t>
+  </si>
+  <si>
+    <t>04-08-2015</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>07:14:05</t>
-  </si>
-  <si>
-    <t>18:35:53</t>
-  </si>
-  <si>
-    <t>02-12-2015</t>
+    <t>07:27:40</t>
+  </si>
+  <si>
+    <t>17:05:45</t>
+  </si>
+  <si>
+    <t>04-09-2015</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>07:28:24</t>
-  </si>
-  <si>
-    <t>18:35:00</t>
-  </si>
-  <si>
-    <t>02-13-2015</t>
+    <t>04-10-2015</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>06:50:09</t>
-  </si>
-  <si>
-    <t>17:33:32</t>
-  </si>
-  <si>
-    <t>02-14-2015</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>02-15-2015</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>02-16-2015</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>07:37:41</t>
-  </si>
-  <si>
-    <t>19:15:57</t>
-  </si>
-  <si>
-    <t>02-17-2015</t>
-  </si>
-  <si>
-    <t>07:08:09</t>
-  </si>
-  <si>
-    <t>18:32:36</t>
-  </si>
-  <si>
-    <t>02-18-2015</t>
-  </si>
-  <si>
-    <t>07:26:54</t>
-  </si>
-  <si>
-    <t>18:32:39</t>
-  </si>
-  <si>
-    <t>02-19-2015</t>
-  </si>
-  <si>
-    <t>02-20-2015</t>
-  </si>
-  <si>
-    <t>07:26:27</t>
-  </si>
-  <si>
-    <t>17:40:43</t>
+    <t>06:42:08</t>
+  </si>
+  <si>
+    <t>17:37:38</t>
+  </si>
+  <si>
+    <t>04-11-2015</t>
+  </si>
+  <si>
+    <t>04-12-2015</t>
+  </si>
+  <si>
+    <t>04-13-2015</t>
+  </si>
+  <si>
+    <t>06:35:01</t>
+  </si>
+  <si>
+    <t>19:31:49</t>
+  </si>
+  <si>
+    <t>04-14-2015</t>
+  </si>
+  <si>
+    <t>06:49:29</t>
+  </si>
+  <si>
+    <t>18:35:08</t>
+  </si>
+  <si>
+    <t>04-15-2015</t>
+  </si>
+  <si>
+    <t>06:38:14</t>
+  </si>
+  <si>
+    <t>18:34:37</t>
+  </si>
+  <si>
+    <t>04-16-2015</t>
+  </si>
+  <si>
+    <t>06:53:57</t>
+  </si>
+  <si>
+    <t>18:34:03</t>
+  </si>
+  <si>
+    <t>04-17-2015</t>
+  </si>
+  <si>
+    <t>06:47:04</t>
+  </si>
+  <si>
+    <t>15:58:59</t>
+  </si>
+  <si>
+    <t>04-18-2015</t>
+  </si>
+  <si>
+    <t>04-19-2015</t>
+  </si>
+  <si>
+    <t>04-20-2015</t>
+  </si>
+  <si>
+    <t>06:56:21</t>
+  </si>
+  <si>
+    <t>18:36:16</t>
+  </si>
+  <si>
+    <t>04-21-2015</t>
+  </si>
+  <si>
+    <t>06:37:58</t>
+  </si>
+  <si>
+    <t>18:34:27</t>
+  </si>
+  <si>
+    <t>04-22-2015</t>
+  </si>
+  <si>
+    <t>04-23-2015</t>
+  </si>
+  <si>
+    <t>06:34:53</t>
+  </si>
+  <si>
+    <t>18:35:29</t>
+  </si>
+  <si>
+    <t>04-24-2015</t>
+  </si>
+  <si>
+    <t>06:39:50</t>
+  </si>
+  <si>
+    <t>17:51:23</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -182,13 +242,10 @@
     <t>VL BALANCE</t>
   </si>
   <si>
-    <t>4.5.0</t>
+    <t>7.5.0</t>
   </si>
   <si>
     <t>SL BALANCE</t>
-  </si>
-  <si>
-    <t>5.5.0</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -389,7 +446,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -466,12 +523,8 @@
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="n">
@@ -491,17 +544,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="n">
@@ -521,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -551,16 +600,16 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -581,13 +630,17 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="n">
@@ -606,26 +659,26 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -633,16 +686,16 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -663,17 +716,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="n">
@@ -693,17 +742,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="n">
@@ -722,26 +767,30 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -749,16 +798,16 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -779,448 +828,736 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="5" t="str">
-        <f>COUNT(F5:F15)</f>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="5" t="str">
-        <f>SUM(F5:F15)</f>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>48</v>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="5" t="str">
-        <f>SUM(G5:G15)</f>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>48</v>
+      <c r="D18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f>SUM(H5:H15)</f>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f>SUM(I5:I15)</f>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20"/>
+        <v>52</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5" t="str">
-        <f>FLOOR(G18/8,1)&amp;"."&amp;FLOOR(MOD(G18,8),1)&amp;"."&amp;(MOD(G18,8)-FLOOR(MOD(G18,8),1))*60</f>
+        <v>54</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="5" t="str">
-        <f>INT(LEFT(B22,1))</f>
-      </c>
-      <c r="L21" s="5" t="str">
-        <f>RIGHT(B22,LEN(B22)-2)</f>
-      </c>
-      <c r="M21" s="5" t="str">
-        <f>INT(LEFT(L21,1))</f>
-      </c>
-      <c r="N21" s="5" t="str">
-        <f>RIGHT(L21,LEN(L21)-2)+0</f>
-      </c>
-      <c r="O21" s="5" t="str">
-        <f>K21*8*60+M21*60+N21</f>
+        <v>56</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="5" t="str">
-        <f>FLOOR(F17/8,1)&amp;"."&amp;FLOOR(MOD(F17,8),1)&amp;"."&amp;(MOD(F17,8)-FLOOR(MOD(F17,8),1))*60</f>
+        <v>57</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="5" t="str">
-        <f>INT(LEFT(B23,1))</f>
-      </c>
-      <c r="L22" s="5" t="str">
-        <f>RIGHT(B23,LEN(B23)-2)</f>
-      </c>
-      <c r="M22" s="5" t="str">
-        <f>INT(LEFT(L22,1))</f>
-      </c>
-      <c r="N22" s="5" t="str">
-        <f>RIGHT(L22,LEN(L22)-2)+0</f>
-      </c>
-      <c r="O22" s="5" t="str">
-        <f>K22*8*60+M22*60+N22</f>
+        <v>59</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="5" t="str">
-        <f>FLOOR(H19,1)&amp;"."&amp;(H19-FLOOR(H19,1))*8&amp;".0"</f>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="5" t="str">
-        <f>INT(LEFT(B24,1))</f>
-      </c>
-      <c r="L23" s="5" t="str">
-        <f>RIGHT(B24,LEN(B24)-2)</f>
-      </c>
-      <c r="M23" s="5" t="str">
-        <f>INT(LEFT(L23,1))</f>
-      </c>
-      <c r="N23" s="5" t="str">
-        <f>RIGHT(L23,LEN(L23)-2)+0</f>
-      </c>
-      <c r="O23" s="5" t="str">
-        <f>K23*8*60+M23*60+N23</f>
+      <c r="A23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="5" t="str">
-        <f>FLOOR(I19,1)&amp;"."&amp;(I19-FLOOR(I19,1))*8&amp;".0"</f>
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="5" t="str">
-        <f>INT(LEFT(B25,1))</f>
-      </c>
-      <c r="L24" s="5" t="str">
-        <f>RIGHT(B25,LEN(B25)-2)</f>
-      </c>
-      <c r="M24" s="5" t="str">
-        <f>INT(LEFT(L24,1))</f>
-      </c>
-      <c r="N24" s="5" t="str">
-        <f>RIGHT(L24,LEN(L24)-2)+0</f>
-      </c>
-      <c r="O24" s="5" t="str">
-        <f>K24*8*60+M24*60+N24</f>
+        <v>63</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="5" t="str">
-        <f>INT(LEFT(B26,1))</f>
-      </c>
-      <c r="L25" s="5" t="str">
-        <f>RIGHT(B26,LEN(B26)-2)</f>
-      </c>
-      <c r="M25" s="5" t="str">
-        <f>INT(LEFT(L25,1))</f>
-      </c>
-      <c r="N25" s="5" t="str">
-        <f>RIGHT(L25,LEN(L25)-2)+0</f>
-      </c>
-      <c r="O25" s="5" t="str">
-        <f>K25*8*60+M25*60+N25</f>
+        <v>66</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f>COUNT(F5:F25)</f>
       </c>
       <c r="G26" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="5" t="str">
-        <f>K21+IF(K22&gt;K24,K22-K24,0)+IF(K23&gt;K25,K23-K25,0)</f>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M26" s="5" t="str">
-        <f>M21+IF(M22&gt;M24,M22-M24,0)+IF(M23&gt;M25,M23-M25,0)</f>
-      </c>
-      <c r="N26" s="5" t="str">
-        <f>N21+IF(N22&gt;N24,N22-N24,0)+IF(N23&gt;N25,N23-N25,0)</f>
-      </c>
-      <c r="O26" s="5" t="str">
-        <f>O21+IF(O22&gt;O24,O22-O24,0)+IF(O23&gt;O25,O23-O25,0)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="5" t="str">
-        <f>FLOOR(K27/8,1)&amp;"."&amp;FLOOR(MOD(K27,8),1)&amp;"."&amp;(MOD(K27,8)-FLOOR(MOD(K27,8),1))*60</f>
+        <v>69</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f>SUM(F5:F25)</f>
       </c>
       <c r="G27" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="5" t="str">
-        <f>O26/60</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="5" t="str">
+        <f>SUM(G5:G25)</f>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>SUM(H5:H25)</f>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f>SUM(I5:I25)</f>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f>FLOOR(G28/8,1)&amp;"."&amp;FLOOR(MOD(G28,8),1)&amp;"."&amp;(MOD(G28,8)-FLOOR(MOD(G28,8),1))*60</f>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f>INT(LEFT(B32,1))</f>
+      </c>
+      <c r="L31" s="5" t="str">
+        <f>RIGHT(B32,LEN(B32)-2)</f>
+      </c>
+      <c r="M31" s="5" t="str">
+        <f>INT(LEFT(L31,1))</f>
+      </c>
+      <c r="N31" s="5" t="str">
+        <f>RIGHT(L31,LEN(L31)-2)+0</f>
+      </c>
+      <c r="O31" s="5" t="str">
+        <f>K31*8*60+M31*60+N31</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="5" t="str">
+        <f>FLOOR(F27/8,1)&amp;"."&amp;FLOOR(MOD(F27,8),1)&amp;"."&amp;(MOD(F27,8)-FLOOR(MOD(F27,8),1))*60</f>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f>INT(LEFT(B33,1))</f>
+      </c>
+      <c r="L32" s="5" t="str">
+        <f>RIGHT(B33,LEN(B33)-2)</f>
+      </c>
+      <c r="M32" s="5" t="str">
+        <f>INT(LEFT(L32,1))</f>
+      </c>
+      <c r="N32" s="5" t="str">
+        <f>RIGHT(L32,LEN(L32)-2)+0</f>
+      </c>
+      <c r="O32" s="5" t="str">
+        <f>K32*8*60+M32*60+N32</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="5" t="str">
+        <f>FLOOR(H29,1)&amp;"."&amp;(H29-FLOOR(H29,1))*8&amp;".0"</f>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f>INT(LEFT(B34,1))</f>
+      </c>
+      <c r="L33" s="5" t="str">
+        <f>RIGHT(B34,LEN(B34)-2)</f>
+      </c>
+      <c r="M33" s="5" t="str">
+        <f>INT(LEFT(L33,1))</f>
+      </c>
+      <c r="N33" s="5" t="str">
+        <f>RIGHT(L33,LEN(L33)-2)+0</f>
+      </c>
+      <c r="O33" s="5" t="str">
+        <f>K33*8*60+M33*60+N33</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5" t="str">
+        <f>FLOOR(I29,1)&amp;"."&amp;(I29-FLOOR(I29,1))*8&amp;".0"</f>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="5" t="str">
+        <f>INT(LEFT(B35,1))</f>
+      </c>
+      <c r="L34" s="5" t="str">
+        <f>RIGHT(B35,LEN(B35)-2)</f>
+      </c>
+      <c r="M34" s="5" t="str">
+        <f>INT(LEFT(L34,1))</f>
+      </c>
+      <c r="N34" s="5" t="str">
+        <f>RIGHT(L34,LEN(L34)-2)+0</f>
+      </c>
+      <c r="O34" s="5" t="str">
+        <f>K34*8*60+M34*60+N34</f>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="5" t="str">
+        <f>INT(LEFT(B36,1))</f>
+      </c>
+      <c r="L35" s="5" t="str">
+        <f>RIGHT(B36,LEN(B36)-2)</f>
+      </c>
+      <c r="M35" s="5" t="str">
+        <f>INT(LEFT(L35,1))</f>
+      </c>
+      <c r="N35" s="5" t="str">
+        <f>RIGHT(L35,LEN(L35)-2)+0</f>
+      </c>
+      <c r="O35" s="5" t="str">
+        <f>K35*8*60+M35*60+N35</f>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="5" t="str">
+        <f>K31+IF(K32&gt;K34,K32-K34,0)+IF(K33&gt;K35,K33-K35,0)</f>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M36" s="5" t="str">
+        <f>M31+IF(M32&gt;M34,M32-M34,0)+IF(M33&gt;M35,M33-M35,0)</f>
+      </c>
+      <c r="N36" s="5" t="str">
+        <f>N31+IF(N32&gt;N34,N32-N34,0)+IF(N33&gt;N35,N33-N35,0)</f>
+      </c>
+      <c r="O36" s="5" t="str">
+        <f>O31+IF(O32&gt;O34,O32-O34,0)+IF(O33&gt;O35,O33-O35,0)</f>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="5" t="str">
+        <f>FLOOR(K37/8,1)&amp;"."&amp;FLOOR(MOD(K37,8),1)&amp;"."&amp;(MOD(K37,8)-FLOOR(MOD(K37,8),1))*60</f>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="5" t="str">
+        <f>O36/60</f>
       </c>
     </row>
   </sheetData>
@@ -1229,13 +1566,13 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="68">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -981,16 +981,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="5" t="str">
@@ -1031,20 +1031,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f>SUM(E5:E14)</f>
+        <f>SUM(E5:E15)</f>
       </c>
       <c r="F20" s="5" t="s">
         <v>55</v>
@@ -1081,22 +1081,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="B21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>55</v>
       </c>
       <c r="G21" s="5" t="str">
@@ -1131,25 +1131,25 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="B22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>55</v>
       </c>
       <c r="H22" s="5" t="str">
@@ -1182,445 +1182,445 @@
     </row>
     <row r="23"/>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="5" t="str">
         <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q24" s="5" t="str">
+      <c r="D24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="0" t="str">
         <f>INT(LEFT(C25,2))</f>
       </c>
-      <c r="R24" s="5" t="str">
+      <c r="R24" s="0" t="str">
         <f>IF(LEFT(RIGHT(C25,LEN(C25)-2),1)=".",RIGHT(C25,LEN(C25)-3),RIGHT(C25,LEN(C25)-2))</f>
       </c>
-      <c r="S24" s="5" t="str">
+      <c r="S24" s="0" t="str">
         <f>INT(LEFT(R24,1))</f>
       </c>
-      <c r="T24" s="5" t="str">
+      <c r="T24" s="0" t="str">
         <f>RIGHT(R24,LEN(R24)-2)+0</f>
       </c>
-      <c r="U24" s="5" t="str">
+      <c r="U24" s="0" t="str">
         <f>Q24*8*60+S24*60+T24</f>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q25" s="5" t="str">
+      <c r="D25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="0" t="str">
         <f>INT(LEFT(C26,2))</f>
       </c>
-      <c r="R25" s="5" t="str">
+      <c r="R25" s="0" t="str">
         <f>IF(LEFT(RIGHT(C26,LEN(C26)-2),1)=".",RIGHT(C26,LEN(C26)-3),RIGHT(C26,LEN(C26)-2))</f>
       </c>
-      <c r="S25" s="5" t="str">
+      <c r="S25" s="0" t="str">
         <f>INT(LEFT(R25,1))</f>
       </c>
-      <c r="T25" s="5" t="str">
+      <c r="T25" s="0" t="str">
         <f>RIGHT(R25,LEN(R25)-2)+0</f>
       </c>
-      <c r="U25" s="5" t="str">
+      <c r="U25" s="0" t="str">
         <f>Q25*8*60+S25*60+T25</f>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="5" t="str">
         <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26" s="5" t="str">
+      <c r="D26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26" s="0" t="str">
         <f>INT(LEFT(C27,2))</f>
       </c>
-      <c r="R26" s="5" t="str">
+      <c r="R26" s="0" t="str">
         <f>IF(LEFT(RIGHT(C27,LEN(C27)-2),1)=".",RIGHT(C27,LEN(C27)-3),RIGHT(C27,LEN(C27)-2))</f>
       </c>
-      <c r="S26" s="5" t="str">
+      <c r="S26" s="0" t="str">
         <f>INT(LEFT(R26,1))</f>
       </c>
-      <c r="T26" s="5" t="str">
+      <c r="T26" s="0" t="str">
         <f>RIGHT(R26,LEN(R26)-2)+0</f>
       </c>
-      <c r="U26" s="5" t="str">
+      <c r="U26" s="0" t="str">
         <f>Q26*8*60+S26*60+T26</f>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q27" s="5" t="str">
+      <c r="D27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q27" s="0" t="str">
         <f>INT(LEFT(C28,2))</f>
       </c>
-      <c r="R27" s="5" t="str">
+      <c r="R27" s="0" t="str">
         <f>IF(LEFT(RIGHT(C28,LEN(C28)-2),1)=".",RIGHT(C28,LEN(C28)-3),RIGHT(C28,LEN(C28)-2))</f>
       </c>
-      <c r="S27" s="5" t="str">
+      <c r="S27" s="0" t="str">
         <f>INT(LEFT(R27,1))</f>
       </c>
-      <c r="T27" s="5" t="str">
+      <c r="T27" s="0" t="str">
         <f>RIGHT(R27,LEN(R27)-2)+0</f>
       </c>
-      <c r="U27" s="5" t="str">
+      <c r="U27" s="0" t="str">
         <f>Q27*8*60+S27*60+T27</f>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="5" t="str">
+      <c r="D28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q28" s="0" t="str">
         <f>INT(LEFT(C29,2))</f>
       </c>
-      <c r="R28" s="5" t="str">
+      <c r="R28" s="0" t="str">
         <f>IF(LEFT(RIGHT(C29,LEN(C29)-2),1)=".",RIGHT(C29,LEN(C29)-3),RIGHT(C29,LEN(C29)-2))</f>
       </c>
-      <c r="S28" s="5" t="str">
+      <c r="S28" s="0" t="str">
         <f>INT(LEFT(R28,1))</f>
       </c>
-      <c r="T28" s="5" t="str">
+      <c r="T28" s="0" t="str">
         <f>RIGHT(R28,LEN(R28)-2)+0</f>
       </c>
-      <c r="U28" s="5" t="str">
+      <c r="U28" s="0" t="str">
         <f>Q28*8*60+S28*60+T28</f>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29" s="5" t="str">
+      <c r="D29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="0" t="str">
         <f>Q24+IF(Q25&gt;Q27,Q25-Q27,0)+IF(Q26&gt;Q28,Q26-Q28,0)</f>
       </c>
-      <c r="R29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S29" s="5" t="str">
+      <c r="R29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" s="0" t="str">
         <f>S24+IF(S25&gt;S27,S25-S27,0)+IF(S26&gt;S28,S26-S28,0)</f>
       </c>
-      <c r="T29" s="5" t="str">
+      <c r="T29" s="0" t="str">
         <f>T24+IF(T25&gt;T27,T25-T27,0)+IF(T26&gt;T28,T26-T28,0)</f>
       </c>
-      <c r="U29" s="5" t="str">
+      <c r="U29" s="0" t="str">
         <f>U24+IF(U25&gt;U27,U25-U27,0)+IF(U26&gt;U28,U26-U28,0)</f>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>FLOOR(Q30/8,1)&amp;"."&amp;FLOOR(MOD(Q30,8),1)&amp;"."&amp;(MOD(Q30,8)-FLOOR(MOD(Q30,8),1))*60</f>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q30" s="5" t="str">
+      <c r="D30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="0" t="str">
         <f>U29/60</f>
       </c>
     </row>
@@ -1631,13 +1631,13 @@
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F19:P19"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="F20:P20"/>
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="H21:P21"/>
     <mergeCell ref="A22:G22"/>
-    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J22:P22"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -368,16 +368,16 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="72" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="76" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -206,15 +206,25 @@
     <t>ACCUMULATED OT</t>
   </si>
   <si>
+    <t>Legends:</t>
+  </si>
+  <si>
     <t>LATES</t>
   </si>
   <si>
+    <t>Employee has request(s)/remark(s) for that day.
+*May incur late and/or undertime depending on his or her time-in and time-out.</t>
+  </si>
+  <si>
     <t>ACCUMULATED VL</t>
   </si>
   <si>
     <t>ACCUMULATED SL</t>
   </si>
   <si>
+    <t>Employee is considered half-day because of his time-in or time-out.</t>
+  </si>
+  <si>
     <t>VL BALANCE</t>
   </si>
   <si>
@@ -222,6 +232,9 @@
   </si>
   <si>
     <t>SL BALANCE</t>
+  </si>
+  <si>
+    <t>Employee has no time-in and therefore, considered as absent.</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -235,7 +248,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -278,9 +291,16 @@
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+      <b val="true"/>
+      <u val="true"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +322,21 @@
         <fgColor rgb="FFDF5E5E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29A3CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDF5E5E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border/>
@@ -407,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -427,7 +462,11 @@
     <xf borderId="6" numFmtId="0" fontId="6" fillId="4" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf borderId="7" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="5" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="6" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="0" fillId="7" applyNumberFormat="false" applyFill="true" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" numFmtId="0" fontId="7" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="7" numFmtId="0" fontId="8" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -995,16 +1034,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E19" s="5" t="str">
@@ -1045,16 +1084,16 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="B20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E20" s="5" t="str">
@@ -1095,22 +1134,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="B21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>60</v>
       </c>
       <c r="G21" s="5" t="str">
@@ -1145,25 +1184,25 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="B22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="5" t="str">
@@ -1196,10 +1235,10 @@
     </row>
     <row r="23"/>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="5" t="str">
@@ -1208,40 +1247,40 @@
       <c r="D24" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" s="0" t="s">
+      <c r="E24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>60</v>
       </c>
       <c r="Q24" s="0" t="str">
@@ -1261,10 +1300,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="5" t="str">
@@ -1273,40 +1312,40 @@
       <c r="D25" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" s="0" t="s">
+      <c r="E25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="12" t="s">
         <v>60</v>
       </c>
       <c r="Q25" s="0" t="str">
@@ -1326,10 +1365,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="5" t="str">
@@ -1338,40 +1377,40 @@
       <c r="D26" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="0" t="s">
+      <c r="E26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="12" t="s">
         <v>60</v>
       </c>
       <c r="Q26" s="0" t="str">
@@ -1391,10 +1430,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="5" t="str">
@@ -1403,40 +1442,40 @@
       <c r="D27" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" s="0" t="s">
+      <c r="E27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="12" t="s">
         <v>60</v>
       </c>
       <c r="Q27" s="0" t="str">
@@ -1456,52 +1495,52 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P28" s="0" t="s">
+      <c r="E28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="12" t="s">
         <v>60</v>
       </c>
       <c r="Q28" s="0" t="str">
@@ -1521,52 +1560,52 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" s="0" t="s">
+      <c r="E29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="12" t="s">
         <v>60</v>
       </c>
       <c r="Q29" s="0" t="str">
@@ -1586,10 +1625,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="5" t="str">
@@ -1598,40 +1637,40 @@
       <c r="D30" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" s="0" t="s">
+      <c r="E30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="12" t="s">
         <v>60</v>
       </c>
       <c r="Q30" s="0" t="str">
@@ -1640,7 +1679,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="18">
+  <mergeCells count="25">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
@@ -1653,11 +1692,18 @@
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="J22:P22"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:P26"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:P28"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:P30"/>
     <mergeCell ref="A30:B30"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="76" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="77" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>TOTAL LEAVES ACCUMULATED</t>
+  </si>
+  <si>
+    <t>TOTAL ABSENCES</t>
   </si>
   <si>
     <t>ACCUMULATED OT</t>
@@ -483,7 +486,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane topLeftCell="C5" state="frozenSplit" activePane="bottomRight" ySplit="4" xSplit="2"/>
@@ -1233,119 +1236,106 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23"/>
-    <row r="24">
-      <c r="A24" s="13" t="s">
+    <row r="23">
+      <c r="A23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="5" t="str">
-        <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q24" s="0" t="str">
-        <f>INT(LEFT(C25,2))</f>
-      </c>
-      <c r="R24" s="0" t="str">
-        <f>IF(LEFT(RIGHT(C25,LEN(C25)-2),1)=".",RIGHT(C25,LEN(C25)-3),RIGHT(C25,LEN(C25)-2))</f>
-      </c>
-      <c r="S24" s="0" t="str">
-        <f>INT(LEFT(R24,1))</f>
-      </c>
-      <c r="T24" s="0" t="str">
-        <f>RIGHT(R24,LEN(R24)-2)+0</f>
-      </c>
-      <c r="U24" s="0" t="str">
-        <f>Q24*8*60+S24*60+T24</f>
-      </c>
-    </row>
+      <c r="B23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24"/>
     <row r="25">
       <c r="A25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="5" t="str">
-        <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
+        <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
       <c r="D25" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" s="12" t="s">
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>60</v>
       </c>
       <c r="Q25" s="0" t="str">
@@ -1366,51 +1356,51 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="5" t="str">
-        <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
+        <f>FLOOR(I23,1,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1,1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1,1))*60</f>
       </c>
       <c r="D26" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="12" t="s">
+      <c r="E26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>60</v>
       </c>
       <c r="Q26" s="0" t="str">
@@ -1431,22 +1421,22 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="5" t="str">
-        <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
+        <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
       <c r="D27" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>60</v>
@@ -1496,18 +1486,18 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>72</v>
+      <c r="C28" s="5" t="str">
+        <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
       <c r="D28" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -1561,22 +1551,22 @@
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>72</v>
+      <c r="C29" s="5" t="str">
+        <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
       <c r="D29" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>60</v>
@@ -1609,77 +1599,207 @@
         <v>60</v>
       </c>
       <c r="Q29" s="0" t="str">
-        <f>Q24+IF(Q25&gt;Q27,Q25-Q27,0)+IF(Q26&gt;Q28,Q26-Q28,0)</f>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>60</v>
+        <f>INT(LEFT(C30,2))</f>
+      </c>
+      <c r="R29" s="0" t="str">
+        <f>IF(LEFT(RIGHT(C30,LEN(C30)-2),1)=".",RIGHT(C30,LEN(C30)-3),RIGHT(C30,LEN(C30)-2))</f>
       </c>
       <c r="S29" s="0" t="str">
-        <f>S24+IF(S25&gt;S27,S25-S27,0)+IF(S26&gt;S28,S26-S28,0)</f>
+        <f>INT(LEFT(R29,1))</f>
       </c>
       <c r="T29" s="0" t="str">
-        <f>T24+IF(T25&gt;T27,T25-T27,0)+IF(T26&gt;T28,T26-T28,0)</f>
+        <f>RIGHT(R29,LEN(R29)-2)+0</f>
       </c>
       <c r="U29" s="0" t="str">
-        <f>U24+IF(U25&gt;U27,U25-U27,0)+IF(U26&gt;U28,U26-U28,0)</f>
+        <f>Q29*8*60+S29*60+T29</f>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="0" t="str">
+        <f>INT(LEFT(C31,2))</f>
+      </c>
+      <c r="R30" s="0" t="str">
+        <f>IF(LEFT(RIGHT(C31,LEN(C31)-2),1)=".",RIGHT(C31,LEN(C31)-3),RIGHT(C31,LEN(C31)-2))</f>
+      </c>
+      <c r="S30" s="0" t="str">
+        <f>INT(LEFT(R30,1))</f>
+      </c>
+      <c r="T30" s="0" t="str">
+        <f>RIGHT(R30,LEN(R30)-2)+0</f>
+      </c>
+      <c r="U30" s="0" t="str">
+        <f>Q30*8*60+S30*60+T30</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="5" t="str">
-        <f>FLOOR(Q30/8,1)&amp;"."&amp;FLOOR(MOD(Q30,8),1)&amp;"."&amp;(MOD(Q30,8)-FLOOR(MOD(Q30,8),1))*60</f>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q30" s="0" t="str">
-        <f>U29/60</f>
+      <c r="G31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="0" t="str">
+        <f>Q26+Q25+IF(Q27&gt;Q29,Q27-Q29,0)+IF(Q28&gt;Q30,Q28-Q30,0)</f>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="S31" s="0" t="str">
+        <f>S26+S25+IF(S27&gt;S29,S27-S29,0)+IF(S28&gt;S30,S28-S30,0)</f>
+      </c>
+      <c r="T31" s="0" t="str">
+        <f>T26+T25+IF(T27&gt;T29,T27-T29,0)+IF(T28&gt;T30,T28-T30,0)</f>
+      </c>
+      <c r="U31" s="0" t="str">
+        <f>U26+U25+IF(U27&gt;U29,U27-U29,0)+IF(U28&gt;U30,U28-U30,0)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="5" t="str">
+        <f>FLOOR(Q32/8,1)&amp;"."&amp;FLOOR(MOD(Q32,8),1)&amp;"."&amp;(MOD(Q32,8)-FLOOR(MOD(Q32,8),1))*60</f>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="0" t="str">
+        <f>U31/60</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="25">
+  <mergeCells count="28">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:P3"/>
@@ -1691,12 +1811,11 @@
     <mergeCell ref="H21:P21"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="J22:P22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="J23:P23"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:P26"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:P26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:P28"/>
@@ -1705,6 +1824,10 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:P30"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:P32"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
+++ b/exceltocsv/public/reports/employee dtr/Balingit,Barbara.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="74" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="77" xml:space="preserve">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -68,115 +68,124 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>03-21-2015</t>
+    <t>04-25-2015</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>03-22-2015</t>
+    <t>04-26-2015</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>03-23-2015</t>
+    <t>04-27-2015</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>03-24-2015</t>
+    <t>06:38:34</t>
+  </si>
+  <si>
+    <t>18:33:21</t>
+  </si>
+  <si>
+    <t>04-28-2015</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>07:10:42</t>
-  </si>
-  <si>
-    <t>18:35:14</t>
-  </si>
-  <si>
-    <t>03-25-2015</t>
+    <t>07:20:17</t>
+  </si>
+  <si>
+    <t>18:35:27</t>
+  </si>
+  <si>
+    <t>04-29-2015</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>07:14:59</t>
-  </si>
-  <si>
-    <t>18:38:37</t>
-  </si>
-  <si>
-    <t>03-26-2015</t>
+    <t>07:09:05</t>
+  </si>
+  <si>
+    <t>18:55:33</t>
+  </si>
+  <si>
+    <t>04-30-2015</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>07:13:37</t>
-  </si>
-  <si>
-    <t>18:40:53</t>
-  </si>
-  <si>
-    <t>03-27-2015</t>
+    <t>06:41:05</t>
+  </si>
+  <si>
+    <t>19:16:33</t>
+  </si>
+  <si>
+    <t>05-01-2015</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>06:38:41</t>
-  </si>
-  <si>
-    <t>17:40:12</t>
-  </si>
-  <si>
-    <t>03-28-2015</t>
-  </si>
-  <si>
-    <t>03-29-2015</t>
-  </si>
-  <si>
-    <t>03-30-2015</t>
-  </si>
-  <si>
-    <t>06:52:07</t>
-  </si>
-  <si>
-    <t>18:38:21</t>
-  </si>
-  <si>
-    <t>03-31-2015</t>
-  </si>
-  <si>
-    <t>07:17:24</t>
-  </si>
-  <si>
-    <t>18:35:56</t>
-  </si>
-  <si>
-    <t>04-01-2015</t>
-  </si>
-  <si>
-    <t>07:00:47</t>
-  </si>
-  <si>
-    <t>18:48:30</t>
-  </si>
-  <si>
-    <t>04-02-2015</t>
-  </si>
-  <si>
-    <t>~Special Day - Maundy Thursday ( Regular Holiday )</t>
-  </si>
-  <si>
-    <t>04-03-2015</t>
-  </si>
-  <si>
-    <t>~Special Day - Good Friday ( Regular Holiday )</t>
+    <t>~Special Day - Labor ( Regular Holiday )</t>
+  </si>
+  <si>
+    <t>05-02-2015</t>
+  </si>
+  <si>
+    <t>05-03-2015</t>
+  </si>
+  <si>
+    <t>05-04-2015</t>
+  </si>
+  <si>
+    <t>06:38:15</t>
+  </si>
+  <si>
+    <t>18:50:52</t>
+  </si>
+  <si>
+    <t>05-05-2015</t>
+  </si>
+  <si>
+    <t>06:50:16</t>
+  </si>
+  <si>
+    <t>18:35:53</t>
+  </si>
+  <si>
+    <t>05-06-2015</t>
+  </si>
+  <si>
+    <t>07:21:51</t>
+  </si>
+  <si>
+    <t>18:34:11</t>
+  </si>
+  <si>
+    <t>05-07-2015</t>
+  </si>
+  <si>
+    <t>06:43:15</t>
+  </si>
+  <si>
+    <t>18:33:14</t>
+  </si>
+  <si>
+    <t>05-08-2015</t>
+  </si>
+  <si>
+    <t>06:33:10</t>
+  </si>
+  <si>
+    <t>17:36:58</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -712,30 +721,34 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P7" s="11" t="inlineStr">
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -743,16 +756,16 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -777,16 +790,16 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -811,16 +824,16 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -844,42 +857,36 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P11" s="6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>20</v>
@@ -909,7 +916,7 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
@@ -939,16 +946,16 @@
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -973,16 +980,16 @@
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1007,16 +1014,16 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -1040,373 +1047,385 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P17" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>55</v>
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P18" s="6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19" s="17" t="str">
-        <f>COUNT(E5:E15)</f>
+        <f>COUNT(E5:E18)</f>
       </c>
       <c r="F19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E20" s="17" t="str">
-        <f>SUM(E5:E15)</f>
+        <f>SUM(E5:E18)</f>
       </c>
       <c r="F20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" s="17" t="str">
         <f>SUM(G5:G18)</f>
       </c>
       <c r="H21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H22" s="17" t="str">
-        <f>SUM(H5:H15)</f>
-      </c>
-      <c r="I22" s="6" t="str">
-        <f>SUM(I5:I15)</f>
+        <f>SUM(H5:H18)</f>
+      </c>
+      <c r="I22" s="17" t="str">
+        <f>SUM(I5:I18)</f>
       </c>
       <c r="J22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I23" s="17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C25" s="17" t="str">
         <f>FLOOR(G21/8,1)&amp;"."&amp;FLOOR(MOD(G21,8),1)&amp;"."&amp;(MOD(G21,8)-FLOOR(MOD(G21,8),1))*60</f>
       </c>
       <c r="D25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
@@ -1414,37 +1433,37 @@
         </is>
       </c>
       <c r="F25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="0" t="str">
         <f>INT(LEFT(C26,2))</f>
@@ -1464,52 +1483,52 @@
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C26" s="17" t="str">
-        <f>FLOOR(I23,1,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1,1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1,1))*60</f>
+        <f>FLOOR(I23,1)&amp;"."&amp;FLOOR(MOD(I23*8,8),1)&amp;"."&amp;(MOD(I23*8,8)-FLOOR(MOD(I23*8,8),1))*60</f>
       </c>
       <c r="D26" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q26" s="0" t="str">
         <f>INT(LEFT(C27,2))</f>
@@ -1529,52 +1548,52 @@
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" s="17" t="str">
         <f>FLOOR(E20/8,1)&amp;"."&amp;FLOOR(MOD(E20,8),1)&amp;"."&amp;(MOD(E20,8)-FLOOR(MOD(E20,8),1))*60</f>
       </c>
       <c r="D27" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="0" t="str">
         <f>INT(LEFT(C28,2))</f>
@@ -1594,52 +1613,52 @@
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C28" s="17" t="str">
         <f>FLOOR(H22,1)&amp;"."&amp;(H22-FLOOR(H22,1))*8&amp;".0"</f>
       </c>
       <c r="D28" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q28" s="0" t="str">
         <f>INT(LEFT(C29,2))</f>
@@ -1659,52 +1678,52 @@
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C29" s="17" t="str">
         <f>FLOOR(I22,1)&amp;"."&amp;(I22-FLOOR(I22,1))*8&amp;".0"</f>
       </c>
       <c r="D29" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q29" s="0" t="str">
         <f>INT(LEFT(C30,2))</f>
@@ -1724,52 +1743,52 @@
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="0" t="str">
         <f>INT(LEFT(C31,2))</f>
@@ -1789,58 +1808,58 @@
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q31" s="0" t="str">
         <f>Q26+Q25+IF(Q27&gt;Q29,Q27-Q29,0)+IF(Q28&gt;Q30,Q28-Q30,0)</f>
       </c>
       <c r="R31" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S31" s="0" t="str">
         <f>S26+S25+IF(S27&gt;S29,S27-S29,0)+IF(S28&gt;S30,S28-S30,0)</f>
@@ -1854,52 +1873,52 @@
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C32" s="17" t="str">
         <f>FLOOR(Q32/8,1)&amp;"."&amp;FLOOR(MOD(Q32,8),1)&amp;"."&amp;(MOD(Q32,8)-FLOOR(MOD(Q32,8),1))*60</f>
       </c>
       <c r="D32" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q32" s="0" t="str">
         <f>U31/60</f>
@@ -1907,52 +1926,52 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
